--- a/data/trans_orig/P78C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E034789F-DA02-4502-B2C4-F76270C89ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{938F2CB5-F04A-44CF-9A42-B1DAA0F04947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F54387F7-BC5C-404A-8E5E-23C2FC69F0F5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{663E4629-C304-4ED4-93A3-33970251B5FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -113,37 +113,37 @@
     <t>Cordoba</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -155,28 +155,28 @@
     <t>Malaga</t>
   </si>
   <si>
-    <t>72,38%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -185,85 +185,85 @@
     <t>91,36%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2993E81B-3A08-4D3C-8D7B-3E627EB90C09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7235414E-60E2-45F6-B2A8-CF780B968EC6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1921</v>
+        <v>2247</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>2439</v>
+        <v>2768</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1921</v>
+        <v>2247</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2439</v>
+        <v>2768</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>25</v>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>11</v>
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>26</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1554</v>
+        <v>1469</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>28</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>976</v>
+        <v>903</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>29</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>2122</v>
+        <v>2017</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>30</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2830</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>32</v>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1500</v>
+        <v>1404</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>33</v>
@@ -1339,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>4330</v>
+        <v>4004</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>34</v>
@@ -1360,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>3976</v>
+        <v>3714</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1375,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>2476</v>
+        <v>2307</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="N15" s="7">
-        <v>6452</v>
+        <v>6021</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2218</v>
+        <v>2146</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>39</v>
@@ -1714,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>5237</v>
+        <v>4895</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>11</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>7455</v>
+        <v>7041</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>41</v>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>847</v>
+        <v>808</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>43</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>846</v>
+        <v>808</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>45</v>
@@ -1801,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3065</v>
+        <v>2954</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>13</v>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>5237</v>
+        <v>4895</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>13</v>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>8301</v>
+        <v>7849</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>13</v>
@@ -1854,7 +1854,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="7">
-        <v>23715</v>
+        <v>20121</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>11</v>
@@ -1869,7 +1869,7 @@
         <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>15986</v>
+        <v>13276</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>49</v>
@@ -1884,7 +1884,7 @@
         <v>39</v>
       </c>
       <c r="N25" s="7">
-        <v>39701</v>
+        <v>33397</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>51</v>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>716</v>
+        <v>606</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>54</v>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>716</v>
+        <v>606</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>56</v>
@@ -1956,7 +1956,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="7">
-        <v>23715</v>
+        <v>20121</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -1971,7 +1971,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="7">
-        <v>16702</v>
+        <v>13882</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -1986,7 +1986,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="7">
-        <v>40417</v>
+        <v>34003</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2009,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="7">
-        <v>30876</v>
+        <v>27378</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>58</v>
@@ -2024,7 +2024,7 @@
         <v>29</v>
       </c>
       <c r="I28" s="7">
-        <v>23437</v>
+        <v>20272</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>61</v>
@@ -2039,7 +2039,7 @@
         <v>57</v>
       </c>
       <c r="N28" s="7">
-        <v>54313</v>
+        <v>47651</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>64</v>
@@ -2060,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>3677</v>
+        <v>3409</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>67</v>
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>2898</v>
+        <v>2641</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>70</v>
@@ -2090,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>6575</v>
+        <v>6050</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>73</v>
@@ -2111,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="7">
-        <v>34553</v>
+        <v>30787</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>13</v>
@@ -2126,7 +2126,7 @@
         <v>33</v>
       </c>
       <c r="I30" s="7">
-        <v>26335</v>
+        <v>22913</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>13</v>
@@ -2141,7 +2141,7 @@
         <v>64</v>
       </c>
       <c r="N30" s="7">
-        <v>60888</v>
+        <v>53701</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>13</v>
